--- a/Sus_Wheel_center.xlsx
+++ b/Sus_Wheel_center.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william_hess/Desktop/FSAE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william_hess/Desktop/FSAE/Local_Copy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C428C65A-C589-4845-9CA5-294BE78EF17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{573B7E13-8565-254C-8070-A783DA0BE273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19660" yWindow="1120" windowWidth="11040" windowHeight="16440" xr2:uid="{CB478E3E-8578-1840-ACE1-398C338BB64A}"/>
   </bookViews>

--- a/Sus_Wheel_center.xlsx
+++ b/Sus_Wheel_center.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william_hess/Desktop/FSAE/Local_Copy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william_hess/Desktop/FSAE/taiyangie-LinkageForceAnalyzer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{573B7E13-8565-254C-8070-A783DA0BE273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828271ED-2084-0C41-AA14-30FE2CBEA8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19660" yWindow="1120" windowWidth="11040" windowHeight="16440" xr2:uid="{CB478E3E-8578-1840-ACE1-398C338BB64A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,17 +66,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,9 +95,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,7 +414,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -448,51 +440,55 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>20.25</v>
-      </c>
-      <c r="C2" s="1">
-        <v>20.25</v>
-      </c>
-      <c r="D2" s="1">
-        <v>80.375</v>
-      </c>
-      <c r="E2" s="1">
-        <v>80.375</v>
+      <c r="B2">
+        <f>13.7 + 15.0593</f>
+        <v>28.7593</v>
+      </c>
+      <c r="C2">
+        <f>13.7 + 15.0593</f>
+        <v>28.7593</v>
+      </c>
+      <c r="D2">
+        <f>74.303 + 15.0593</f>
+        <v>89.362300000000005</v>
+      </c>
+      <c r="E2">
+        <f>74.303 + 15.0593</f>
+        <v>89.362300000000005</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>-23.625</v>
-      </c>
-      <c r="C3" s="1">
-        <v>23.625</v>
-      </c>
-      <c r="D3" s="1">
-        <v>-22.875</v>
-      </c>
-      <c r="E3" s="1">
-        <v>22.875</v>
+      <c r="B3">
+        <v>-23.622</v>
+      </c>
+      <c r="C3">
+        <v>23.622</v>
+      </c>
+      <c r="D3">
+        <v>-23.461886</v>
+      </c>
+      <c r="E3">
+        <v>23.461886</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>8.798</v>
-      </c>
-      <c r="C4" s="1">
-        <v>8.798</v>
-      </c>
-      <c r="D4" s="1">
-        <v>8.798</v>
-      </c>
-      <c r="E4" s="1">
-        <v>8.798</v>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>9.1391220000000004</v>
+      </c>
+      <c r="E4">
+        <v>9.1391220000000004</v>
       </c>
     </row>
   </sheetData>
